--- a/calculadora_solar/Calculadora_Solar_V4_Listas_Informe.xlsx
+++ b/calculadora_solar/Calculadora_Solar_V4_Listas_Informe.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Calculadora" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Informe Cliente" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lista de Materiales" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,10 +18,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -81,8 +83,34 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000070C0"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -161,8 +189,32 @@
         <bgColor rgb="00E3F2FD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001976D2"/>
+        <bgColor rgb="001976D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3E5FC"/>
+        <bgColor rgb="00B3E5FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF9C4"/>
+        <bgColor rgb="00FFF9C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3E0"/>
+        <bgColor rgb="00FFF3E0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,11 +228,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +347,65 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1349,6 +1488,10 @@
           <t>TOTAL CONSUMO DIARIO</t>
         </is>
       </c>
+      <c r="B23" s="36" t="n"/>
+      <c r="C23" s="36" t="n"/>
+      <c r="D23" s="36" t="n"/>
+      <c r="E23" s="37" t="n"/>
       <c r="F23" s="11">
         <f>SUM(F5:F22)</f>
         <v/>
@@ -1373,6 +1516,7 @@
           <t>PARÁMETRO</t>
         </is>
       </c>
+      <c r="C26" s="37" t="n"/>
       <c r="D26" s="4" t="inlineStr">
         <is>
           <t>VALOR</t>
@@ -1388,6 +1532,10 @@
           <t>DESCRIPCIÓN</t>
         </is>
       </c>
+      <c r="G26" s="36" t="n"/>
+      <c r="H26" s="36" t="n"/>
+      <c r="I26" s="36" t="n"/>
+      <c r="J26" s="37" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="inlineStr">
@@ -1395,6 +1543,7 @@
           <t>Voltaje del sistema</t>
         </is>
       </c>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="6" t="n">
         <v>48</v>
       </c>
@@ -1408,6 +1557,10 @@
           <t>Seleccione: 12V/24V/48V/96V</t>
         </is>
       </c>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="36" t="n"/>
+      <c r="I27" s="36" t="n"/>
+      <c r="J27" s="37" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="inlineStr">
@@ -1415,6 +1568,7 @@
           <t>Frecuencia</t>
         </is>
       </c>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="6" t="n">
         <v>60</v>
       </c>
@@ -1428,6 +1582,10 @@
           <t>Seleccione: 50Hz o 60Hz</t>
         </is>
       </c>
+      <c r="G28" s="36" t="n"/>
+      <c r="H28" s="36" t="n"/>
+      <c r="I28" s="36" t="n"/>
+      <c r="J28" s="37" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="inlineStr">
@@ -1435,6 +1593,7 @@
           <t>Tipo de red</t>
         </is>
       </c>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="6" t="inlineStr">
         <is>
           <t>110V Monofásico</t>
@@ -1446,6 +1605,10 @@
           <t>Use lista desplegable</t>
         </is>
       </c>
+      <c r="G29" s="36" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+      <c r="J29" s="37" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="inlineStr">
@@ -1453,6 +1616,7 @@
           <t>Tipo de inversor</t>
         </is>
       </c>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="6" t="inlineStr">
         <is>
           <t>Híbrido</t>
@@ -1464,6 +1628,10 @@
           <t>Use lista desplegable</t>
         </is>
       </c>
+      <c r="G30" s="36" t="n"/>
+      <c r="H30" s="36" t="n"/>
+      <c r="I30" s="36" t="n"/>
+      <c r="J30" s="37" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr">
@@ -1478,6 +1646,7 @@
           <t>PARÁMETRO</t>
         </is>
       </c>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="4" t="inlineStr">
         <is>
           <t>VALOR</t>
@@ -1493,6 +1662,10 @@
           <t>DESCRIPCIÓN</t>
         </is>
       </c>
+      <c r="G32" s="36" t="n"/>
+      <c r="H32" s="36" t="n"/>
+      <c r="I32" s="36" t="n"/>
+      <c r="J32" s="37" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="inlineStr">
@@ -1500,6 +1673,7 @@
           <t>Potencia nominal (Pmax)</t>
         </is>
       </c>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="6" t="n">
         <v>400</v>
       </c>
@@ -1513,6 +1687,10 @@
           <t>Potencia del panel</t>
         </is>
       </c>
+      <c r="G33" s="36" t="n"/>
+      <c r="H33" s="36" t="n"/>
+      <c r="I33" s="36" t="n"/>
+      <c r="J33" s="37" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="inlineStr">
@@ -1520,6 +1698,7 @@
           <t>Voltaje en Pmax (Vmp)</t>
         </is>
       </c>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="18" t="n">
         <v>36.5</v>
       </c>
@@ -1533,6 +1712,10 @@
           <t>Voltaje a máxima potencia</t>
         </is>
       </c>
+      <c r="G34" s="36" t="n"/>
+      <c r="H34" s="36" t="n"/>
+      <c r="I34" s="36" t="n"/>
+      <c r="J34" s="37" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="inlineStr">
@@ -1540,6 +1723,7 @@
           <t>Corriente en Pmax (Imp)</t>
         </is>
       </c>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="18" t="n">
         <v>10.96</v>
       </c>
@@ -1553,6 +1737,10 @@
           <t>Corriente a máxima potencia</t>
         </is>
       </c>
+      <c r="G35" s="36" t="n"/>
+      <c r="H35" s="36" t="n"/>
+      <c r="I35" s="36" t="n"/>
+      <c r="J35" s="37" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="inlineStr">
@@ -1560,6 +1748,7 @@
           <t>Configuración string</t>
         </is>
       </c>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="6" t="inlineStr">
         <is>
           <t>Serie</t>
@@ -1571,6 +1760,10 @@
           <t>Serie o Paralelo</t>
         </is>
       </c>
+      <c r="G36" s="36" t="n"/>
+      <c r="H36" s="36" t="n"/>
+      <c r="I36" s="36" t="n"/>
+      <c r="J36" s="37" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="15" t="inlineStr">
@@ -1578,6 +1771,7 @@
           <t>Paneles por string</t>
         </is>
       </c>
+      <c r="C37" s="37" t="n"/>
       <c r="D37" s="6" t="n">
         <v>1</v>
       </c>
@@ -1591,6 +1785,10 @@
           <t>Cantidad de paneles por string</t>
         </is>
       </c>
+      <c r="G37" s="36" t="n"/>
+      <c r="H37" s="36" t="n"/>
+      <c r="I37" s="36" t="n"/>
+      <c r="J37" s="37" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="19" t="inlineStr">
@@ -1605,6 +1803,7 @@
           <t>PARÁMETRO</t>
         </is>
       </c>
+      <c r="C39" s="37" t="n"/>
       <c r="D39" s="4" t="inlineStr">
         <is>
           <t>RESULTADO</t>
@@ -1620,6 +1819,10 @@
           <t>FÓRMULA</t>
         </is>
       </c>
+      <c r="G39" s="36" t="n"/>
+      <c r="H39" s="36" t="n"/>
+      <c r="I39" s="36" t="n"/>
+      <c r="J39" s="37" t="n"/>
     </row>
     <row r="40">
       <c r="B40" s="15" t="inlineStr">
@@ -1627,6 +1830,7 @@
           <t>Voltaje del string (Vstring)</t>
         </is>
       </c>
+      <c r="C40" s="37" t="n"/>
       <c r="D40" s="21">
         <f>IF(D36="Serie",D34*D37,IF(D36="Paralelo",D34,D34*SQRT(D37)))</f>
         <v/>
@@ -1641,6 +1845,10 @@
           <t>Vmp × Paneles (serie) o Vmp (paralelo)</t>
         </is>
       </c>
+      <c r="G40" s="36" t="n"/>
+      <c r="H40" s="36" t="n"/>
+      <c r="I40" s="36" t="n"/>
+      <c r="J40" s="37" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="15" t="inlineStr">
@@ -1648,6 +1856,7 @@
           <t>Corriente del string (Istring)</t>
         </is>
       </c>
+      <c r="C41" s="37" t="n"/>
       <c r="D41" s="21">
         <f>IF(D36="Serie",D35,IF(D36="Paralelo",D35*D37,D35*SQRT(D37)))</f>
         <v/>
@@ -1662,6 +1871,10 @@
           <t>Imp (serie) o Imp × Paneles (paralelo)</t>
         </is>
       </c>
+      <c r="G41" s="36" t="n"/>
+      <c r="H41" s="36" t="n"/>
+      <c r="I41" s="36" t="n"/>
+      <c r="J41" s="37" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="15" t="inlineStr">
@@ -1669,6 +1882,7 @@
           <t>Potencia del string</t>
         </is>
       </c>
+      <c r="C42" s="37" t="n"/>
       <c r="D42" s="21">
         <f>D40*D41</f>
         <v/>
@@ -1683,6 +1897,10 @@
           <t>Vstring × Istring</t>
         </is>
       </c>
+      <c r="G42" s="36" t="n"/>
+      <c r="H42" s="36" t="n"/>
+      <c r="I42" s="36" t="n"/>
+      <c r="J42" s="37" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="22" t="inlineStr">
@@ -1697,6 +1915,7 @@
           <t>PARÁMETRO</t>
         </is>
       </c>
+      <c r="C44" s="37" t="n"/>
       <c r="D44" s="4" t="inlineStr">
         <is>
           <t>VALOR</t>
@@ -1712,6 +1931,10 @@
           <t>DESCRIPCIÓN</t>
         </is>
       </c>
+      <c r="G44" s="36" t="n"/>
+      <c r="H44" s="36" t="n"/>
+      <c r="I44" s="36" t="n"/>
+      <c r="J44" s="37" t="n"/>
     </row>
     <row r="45">
       <c r="B45" s="15" t="inlineStr">
@@ -1719,6 +1942,7 @@
           <t>Días de autonomía</t>
         </is>
       </c>
+      <c r="C45" s="37" t="n"/>
       <c r="D45" s="6" t="n">
         <v>1</v>
       </c>
@@ -1732,6 +1956,10 @@
           <t>Reserva del banco</t>
         </is>
       </c>
+      <c r="G45" s="36" t="n"/>
+      <c r="H45" s="36" t="n"/>
+      <c r="I45" s="36" t="n"/>
+      <c r="J45" s="37" t="n"/>
     </row>
     <row r="46">
       <c r="B46" s="15" t="inlineStr">
@@ -1739,6 +1967,7 @@
           <t>Tipo de batería</t>
         </is>
       </c>
+      <c r="C46" s="37" t="n"/>
       <c r="D46" s="6" t="inlineStr">
         <is>
           <t>Litio</t>
@@ -1750,6 +1979,10 @@
           <t>Use lista desplegable</t>
         </is>
       </c>
+      <c r="G46" s="36" t="n"/>
+      <c r="H46" s="36" t="n"/>
+      <c r="I46" s="36" t="n"/>
+      <c r="J46" s="37" t="n"/>
     </row>
     <row r="47">
       <c r="B47" s="15" t="inlineStr">
@@ -1757,6 +1990,7 @@
           <t>Profundidad descarga</t>
         </is>
       </c>
+      <c r="C47" s="37" t="n"/>
       <c r="D47" s="18" t="n">
         <v>0.8</v>
       </c>
@@ -1766,6 +2000,10 @@
           <t>Según tipo batería</t>
         </is>
       </c>
+      <c r="G47" s="36" t="n"/>
+      <c r="H47" s="36" t="n"/>
+      <c r="I47" s="36" t="n"/>
+      <c r="J47" s="37" t="n"/>
     </row>
     <row r="48">
       <c r="B48" s="15" t="inlineStr">
@@ -1773,6 +2011,7 @@
           <t>Eficiencia inversor</t>
         </is>
       </c>
+      <c r="C48" s="37" t="n"/>
       <c r="D48" s="18" t="n">
         <v>0.9</v>
       </c>
@@ -1782,6 +2021,10 @@
           <t>90% típica</t>
         </is>
       </c>
+      <c r="G48" s="36" t="n"/>
+      <c r="H48" s="36" t="n"/>
+      <c r="I48" s="36" t="n"/>
+      <c r="J48" s="37" t="n"/>
     </row>
     <row r="49">
       <c r="B49" s="15" t="inlineStr">
@@ -1789,6 +2032,7 @@
           <t>Horas Sol Pico (HSP)</t>
         </is>
       </c>
+      <c r="C49" s="37" t="n"/>
       <c r="D49" s="6" t="n">
         <v>5</v>
       </c>
@@ -1802,6 +2046,10 @@
           <t>Según ubicación</t>
         </is>
       </c>
+      <c r="G49" s="36" t="n"/>
+      <c r="H49" s="36" t="n"/>
+      <c r="I49" s="36" t="n"/>
+      <c r="J49" s="37" t="n"/>
     </row>
     <row r="50">
       <c r="B50" s="15" t="inlineStr">
@@ -1809,6 +2057,7 @@
           <t>Factor pérdidas</t>
         </is>
       </c>
+      <c r="C50" s="37" t="n"/>
       <c r="D50" s="18" t="n">
         <v>0.75</v>
       </c>
@@ -1818,6 +2067,10 @@
           <t>75% útil</t>
         </is>
       </c>
+      <c r="G50" s="36" t="n"/>
+      <c r="H50" s="36" t="n"/>
+      <c r="I50" s="36" t="n"/>
+      <c r="J50" s="37" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="24" t="inlineStr">
@@ -1832,6 +2085,7 @@
           <t>CÁLCULO</t>
         </is>
       </c>
+      <c r="C52" s="37" t="n"/>
       <c r="D52" s="4" t="inlineStr">
         <is>
           <t>RESULTADO</t>
@@ -1847,6 +2101,10 @@
           <t>FÓRMULA</t>
         </is>
       </c>
+      <c r="G52" s="36" t="n"/>
+      <c r="H52" s="36" t="n"/>
+      <c r="I52" s="36" t="n"/>
+      <c r="J52" s="37" t="n"/>
     </row>
     <row r="53">
       <c r="B53" s="15" t="inlineStr">
@@ -1854,6 +2112,7 @@
           <t>Consumo diario real</t>
         </is>
       </c>
+      <c r="C53" s="37" t="n"/>
       <c r="D53" s="21">
         <f>H23</f>
         <v/>
@@ -1868,6 +2127,10 @@
           <t>Suma consumos</t>
         </is>
       </c>
+      <c r="G53" s="36" t="n"/>
+      <c r="H53" s="36" t="n"/>
+      <c r="I53" s="36" t="n"/>
+      <c r="J53" s="37" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="15" t="inlineStr">
@@ -1875,6 +2138,7 @@
           <t>Consumo ajustado inv.</t>
         </is>
       </c>
+      <c r="C54" s="37" t="n"/>
       <c r="D54" s="21">
         <f>H23/D48</f>
         <v/>
@@ -1889,6 +2153,10 @@
           <t>Con eficiencia</t>
         </is>
       </c>
+      <c r="G54" s="36" t="n"/>
+      <c r="H54" s="36" t="n"/>
+      <c r="I54" s="36" t="n"/>
+      <c r="J54" s="37" t="n"/>
     </row>
     <row r="55">
       <c r="B55" s="15" t="inlineStr">
@@ -1896,6 +2164,7 @@
           <t>Capacidad banco (Wh)</t>
         </is>
       </c>
+      <c r="C55" s="37" t="n"/>
       <c r="D55" s="21">
         <f>(H23*D45)/D47</f>
         <v/>
@@ -1910,6 +2179,10 @@
           <t>Según autonomía</t>
         </is>
       </c>
+      <c r="G55" s="36" t="n"/>
+      <c r="H55" s="36" t="n"/>
+      <c r="I55" s="36" t="n"/>
+      <c r="J55" s="37" t="n"/>
     </row>
     <row r="56">
       <c r="B56" s="15" t="inlineStr">
@@ -1917,6 +2190,7 @@
           <t>Capacidad banco (Ah)</t>
         </is>
       </c>
+      <c r="C56" s="37" t="n"/>
       <c r="D56" s="21">
         <f>D55/D27</f>
         <v/>
@@ -1931,6 +2205,10 @@
           <t>A voltaje sistema</t>
         </is>
       </c>
+      <c r="G56" s="36" t="n"/>
+      <c r="H56" s="36" t="n"/>
+      <c r="I56" s="36" t="n"/>
+      <c r="J56" s="37" t="n"/>
     </row>
     <row r="57">
       <c r="B57" s="15" t="inlineStr">
@@ -1938,6 +2216,7 @@
           <t>Potencia paneles FV</t>
         </is>
       </c>
+      <c r="C57" s="37" t="n"/>
       <c r="D57" s="21">
         <f>D54/D49/D50</f>
         <v/>
@@ -1952,6 +2231,10 @@
           <t>Requerida</t>
         </is>
       </c>
+      <c r="G57" s="36" t="n"/>
+      <c r="H57" s="36" t="n"/>
+      <c r="I57" s="36" t="n"/>
+      <c r="J57" s="37" t="n"/>
     </row>
     <row r="58">
       <c r="B58" s="15" t="inlineStr">
@@ -1959,6 +2242,7 @@
           <t>Potencia recomendada</t>
         </is>
       </c>
+      <c r="C58" s="37" t="n"/>
       <c r="D58" s="21">
         <f>D57*1.2</f>
         <v/>
@@ -1973,6 +2257,10 @@
           <t>Con 20% margen</t>
         </is>
       </c>
+      <c r="G58" s="36" t="n"/>
+      <c r="H58" s="36" t="n"/>
+      <c r="I58" s="36" t="n"/>
+      <c r="J58" s="37" t="n"/>
     </row>
     <row r="59">
       <c r="B59" s="15" t="inlineStr">
@@ -1980,6 +2268,7 @@
           <t>Cantidad paneles</t>
         </is>
       </c>
+      <c r="C59" s="37" t="n"/>
       <c r="D59" s="21">
         <f>ROUNDUP(D58/D33,0)</f>
         <v/>
@@ -1994,6 +2283,10 @@
           <t>Según potencia</t>
         </is>
       </c>
+      <c r="G59" s="36" t="n"/>
+      <c r="H59" s="36" t="n"/>
+      <c r="I59" s="36" t="n"/>
+      <c r="J59" s="37" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="15" t="inlineStr">
@@ -2001,6 +2294,7 @@
           <t>Número de strings</t>
         </is>
       </c>
+      <c r="C60" s="37" t="n"/>
       <c r="D60" s="21">
         <f>ROUNDUP(D59/D37,0)</f>
         <v/>
@@ -2015,6 +2309,10 @@
           <t>Según config.</t>
         </is>
       </c>
+      <c r="G60" s="36" t="n"/>
+      <c r="H60" s="36" t="n"/>
+      <c r="I60" s="36" t="n"/>
+      <c r="J60" s="37" t="n"/>
     </row>
     <row r="61">
       <c r="B61" s="15" t="inlineStr">
@@ -2022,6 +2320,7 @@
           <t>Potencia del inversor</t>
         </is>
       </c>
+      <c r="C61" s="37" t="n"/>
       <c r="D61" s="21">
         <f>MAX(D5:D22)*1.25</f>
         <v/>
@@ -2036,6 +2335,10 @@
           <t>Pico + 25%</t>
         </is>
       </c>
+      <c r="G61" s="36" t="n"/>
+      <c r="H61" s="36" t="n"/>
+      <c r="I61" s="36" t="n"/>
+      <c r="J61" s="37" t="n"/>
     </row>
     <row r="62">
       <c r="B62" s="15" t="inlineStr">
@@ -2043,6 +2346,7 @@
           <t>Corriente controlador</t>
         </is>
       </c>
+      <c r="C62" s="37" t="n"/>
       <c r="D62" s="21">
         <f>D58/D27*1.25</f>
         <v/>
@@ -2057,6 +2361,10 @@
           <t>Con margen</t>
         </is>
       </c>
+      <c r="G62" s="36" t="n"/>
+      <c r="H62" s="36" t="n"/>
+      <c r="I62" s="36" t="n"/>
+      <c r="J62" s="37" t="n"/>
     </row>
     <row r="64" ht="35" customHeight="1">
       <c r="A64" s="26" t="inlineStr">
@@ -2069,19 +2377,19 @@
   <mergeCells count="75">
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F29:J29"/>
     <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="F57:J57"/>
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="F34:J34"/>
     <mergeCell ref="F54:J54"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B56:C56"/>
     <mergeCell ref="F40:J40"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
@@ -2130,8 +2438,8 @@
     <mergeCell ref="F61:J61"/>
     <mergeCell ref="F37:J37"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F39:J39"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F39:J39"/>
     <mergeCell ref="F48:J48"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B36:C36"/>
@@ -2312,6 +2620,7 @@
         <v/>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="34" t="inlineStr">
         <is>
@@ -2337,7 +2646,7 @@
         </is>
       </c>
       <c r="B18" s="33">
-        <f>Calculadora!D58&amp;" Wp"</f>
+        <f>TEXT(Calculadora!D63,"0.00")&amp;" Wp"</f>
         <v/>
       </c>
     </row>
@@ -2348,7 +2657,7 @@
         </is>
       </c>
       <c r="B19" s="33">
-        <f>Calculadora!D59&amp;" paneles de "&amp;Calculadora!D33&amp;"W"</f>
+        <f>Calculadora!D64&amp;" paneles de "&amp;TEXT(Calculadora!D34,"0.00")&amp;"W"</f>
         <v/>
       </c>
     </row>
@@ -2518,4 +2827,1366 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LISTA DE MATERIALES - SISTEMA FOTOVOLTAICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="38" t="inlineStr">
+        <is>
+          <t>Listado completo de componentes, cantidades y especificaciones técnicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="39" t="inlineStr">
+        <is>
+          <t>ÍTEM</t>
+        </is>
+      </c>
+      <c r="B4" s="39" t="inlineStr">
+        <is>
+          <t>CATEGORÍA</t>
+        </is>
+      </c>
+      <c r="C4" s="39" t="inlineStr">
+        <is>
+          <t>COMPONENTE</t>
+        </is>
+      </c>
+      <c r="D4" s="39" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="E4" s="39" t="inlineStr">
+        <is>
+          <t>ESPECIFICACIÓN</t>
+        </is>
+      </c>
+      <c r="F4" s="39" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G4" s="39" t="inlineStr">
+        <is>
+          <t>PRECIO UNIT.</t>
+        </is>
+      </c>
+      <c r="H4" s="39" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="41" t="inlineStr">
+        <is>
+          <t>PANELES SOLARES</t>
+        </is>
+      </c>
+      <c r="C5" s="42" t="inlineStr">
+        <is>
+          <t>Paneles Fotovoltaicos</t>
+        </is>
+      </c>
+      <c r="D5" s="43">
+        <f>Calculadora!D64</f>
+        <v/>
+      </c>
+      <c r="E5" s="44">
+        <f>Calculadora!D34&amp;"W - Vmp: "&amp;Calculadora!D35&amp;"V - Imp: "&amp;Calculadora!D36&amp;"A"</f>
+        <v/>
+      </c>
+      <c r="F5" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G5" s="46" t="n">
+        <v>175</v>
+      </c>
+      <c r="H5" s="47">
+        <f>D5*G5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="41" t="inlineStr">
+        <is>
+          <t>PANELES SOLARES</t>
+        </is>
+      </c>
+      <c r="C6" s="42" t="inlineStr">
+        <is>
+          <t>Estructura de montaje</t>
+        </is>
+      </c>
+      <c r="D6" s="43">
+        <f>Calculadora!D64</f>
+        <v/>
+      </c>
+      <c r="E6" s="44" t="inlineStr">
+        <is>
+          <t>Aluminio con tornillería inoxidable</t>
+        </is>
+      </c>
+      <c r="F6" s="45" t="inlineStr">
+        <is>
+          <t>kit</t>
+        </is>
+      </c>
+      <c r="G6" s="46" t="n">
+        <v>15</v>
+      </c>
+      <c r="H6" s="47">
+        <f>D6*G6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="41" t="inlineStr">
+        <is>
+          <t>PANELES SOLARES</t>
+        </is>
+      </c>
+      <c r="C7" s="42" t="inlineStr">
+        <is>
+          <t>Rieles de montaje</t>
+        </is>
+      </c>
+      <c r="D7" s="43">
+        <f>ROUNDUP(Calculadora!D64/4,0)*2</f>
+        <v/>
+      </c>
+      <c r="E7" s="44" t="inlineStr">
+        <is>
+          <t>Riel aluminio 4.2m</t>
+        </is>
+      </c>
+      <c r="F7" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G7" s="46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" s="47">
+        <f>D7*G7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41" t="inlineStr">
+        <is>
+          <t>PANELES SOLARES</t>
+        </is>
+      </c>
+      <c r="C8" s="42" t="inlineStr">
+        <is>
+          <t>Kit de tornillería</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="44" t="inlineStr">
+        <is>
+          <t>Tornillos, tuercas, arandelas inox</t>
+        </is>
+      </c>
+      <c r="F8" s="45" t="inlineStr">
+        <is>
+          <t>kit</t>
+        </is>
+      </c>
+      <c r="G8" s="46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H8" s="47">
+        <f>D8*G8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="41" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+      <c r="C9" s="42" t="inlineStr">
+        <is>
+          <t>Inversor híbrido</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="44">
+        <f>ROUND(Calculadora!D66/1000,1)&amp;"kW @ "&amp;Calculadora!D27&amp;"V - "&amp;Calculadora!D29</f>
+        <v/>
+      </c>
+      <c r="F9" s="45" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="G9" s="46" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="47">
+        <f>D9*G9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="41" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+      <c r="C10" s="42" t="inlineStr">
+        <is>
+          <t>Controlador de carga MPPT</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <f>ROUND(Calculadora!D67,0)&amp;"A para "&amp;Calculadora!D27&amp;"V"</f>
+        <v/>
+      </c>
+      <c r="F10" s="45" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="G10" s="46" t="n">
+        <v>400</v>
+      </c>
+      <c r="H10" s="47">
+        <f>D10*G10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="41" t="inlineStr">
+        <is>
+          <t>BATERÍAS</t>
+        </is>
+      </c>
+      <c r="C11" s="42" t="inlineStr">
+        <is>
+          <t>Banco de baterías</t>
+        </is>
+      </c>
+      <c r="D11" s="43">
+        <f>ROUNDUP(Calculadora!D61/200,0)</f>
+        <v/>
+      </c>
+      <c r="E11" s="44">
+        <f>Calculadora!D48&amp;" - 200Ah - "&amp;Calculadora!D27&amp;"V"</f>
+        <v/>
+      </c>
+      <c r="F11" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G11" s="46" t="n">
+        <v>550</v>
+      </c>
+      <c r="H11" s="47">
+        <f>D11*G11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="41" t="inlineStr">
+        <is>
+          <t>BATERÍAS</t>
+        </is>
+      </c>
+      <c r="C12" s="42" t="inlineStr">
+        <is>
+          <t>Cables de interconexión baterías</t>
+        </is>
+      </c>
+      <c r="D12" s="43">
+        <f>ROUNDUP(Calculadora!D61/200,0)+1</f>
+        <v/>
+      </c>
+      <c r="E12" s="44" t="inlineStr">
+        <is>
+          <t>Cable 2/0 AWG, 1m c/u</t>
+        </is>
+      </c>
+      <c r="F12" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G12" s="46" t="n">
+        <v>15</v>
+      </c>
+      <c r="H12" s="47">
+        <f>D12*G12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="41" t="inlineStr">
+        <is>
+          <t>BATERÍAS</t>
+        </is>
+      </c>
+      <c r="C13" s="42" t="inlineStr">
+        <is>
+          <t>Terminales y conectores</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="44" t="inlineStr">
+        <is>
+          <t>Kit completo para baterías</t>
+        </is>
+      </c>
+      <c r="F13" s="45" t="inlineStr">
+        <is>
+          <t>kit</t>
+        </is>
+      </c>
+      <c r="G13" s="46" t="n">
+        <v>40</v>
+      </c>
+      <c r="H13" s="47">
+        <f>D13*G13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="41" t="inlineStr">
+        <is>
+          <t>CABLEADO DC</t>
+        </is>
+      </c>
+      <c r="C14" s="42" t="inlineStr">
+        <is>
+          <t>Cable solar DC 10AWG</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44" t="inlineStr">
+        <is>
+          <t>50 metros</t>
+        </is>
+      </c>
+      <c r="F14" s="45" t="inlineStr">
+        <is>
+          <t>rollo</t>
+        </is>
+      </c>
+      <c r="G14" s="46" t="n">
+        <v>250</v>
+      </c>
+      <c r="H14" s="47">
+        <f>D14*G14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="41" t="inlineStr">
+        <is>
+          <t>CABLEADO DC</t>
+        </is>
+      </c>
+      <c r="C15" s="42" t="inlineStr">
+        <is>
+          <t>Conectores MC4</t>
+        </is>
+      </c>
+      <c r="D15" s="43">
+        <f>Calculadora!D64*2</f>
+        <v/>
+      </c>
+      <c r="E15" s="44" t="inlineStr">
+        <is>
+          <t>Macho y hembra</t>
+        </is>
+      </c>
+      <c r="F15" s="45" t="inlineStr">
+        <is>
+          <t>pares</t>
+        </is>
+      </c>
+      <c r="G15" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="47">
+        <f>D15*G15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="40" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="41" t="inlineStr">
+        <is>
+          <t>CABLEADO DC</t>
+        </is>
+      </c>
+      <c r="C16" s="42" t="inlineStr">
+        <is>
+          <t>Cable 8AWG baterías-inversor</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="44" t="inlineStr">
+        <is>
+          <t>10 metros</t>
+        </is>
+      </c>
+      <c r="F16" s="45" t="inlineStr">
+        <is>
+          <t>rollo</t>
+        </is>
+      </c>
+      <c r="G16" s="46" t="n">
+        <v>80</v>
+      </c>
+      <c r="H16" s="47">
+        <f>D16*G16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="41" t="inlineStr">
+        <is>
+          <t>CABLEADO DC</t>
+        </is>
+      </c>
+      <c r="C17" s="42" t="inlineStr">
+        <is>
+          <t>Fusibles DC</t>
+        </is>
+      </c>
+      <c r="D17" s="43">
+        <f>Calculadora!D65</f>
+        <v/>
+      </c>
+      <c r="E17" s="44">
+        <f>ROUND(Calculadora!D42*1.25,0)&amp;"A por string"</f>
+        <v/>
+      </c>
+      <c r="F17" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G17" s="46" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="47">
+        <f>D17*G17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="41" t="inlineStr">
+        <is>
+          <t>CABLEADO AC</t>
+        </is>
+      </c>
+      <c r="C18" s="42" t="inlineStr">
+        <is>
+          <t>Cable THW 10AWG</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44" t="inlineStr">
+        <is>
+          <t>30 metros entrada/salida</t>
+        </is>
+      </c>
+      <c r="F18" s="45" t="inlineStr">
+        <is>
+          <t>rollo</t>
+        </is>
+      </c>
+      <c r="G18" s="46" t="n">
+        <v>150</v>
+      </c>
+      <c r="H18" s="47">
+        <f>D18*G18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="40" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="41" t="inlineStr">
+        <is>
+          <t>CABLEADO AC</t>
+        </is>
+      </c>
+      <c r="C19" s="42" t="inlineStr">
+        <is>
+          <t>Cable tierra 8AWG</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="44" t="inlineStr">
+        <is>
+          <t>40 metros</t>
+        </is>
+      </c>
+      <c r="F19" s="45" t="inlineStr">
+        <is>
+          <t>rollo</t>
+        </is>
+      </c>
+      <c r="G19" s="46" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" s="47">
+        <f>D19*G19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="40" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="41" t="inlineStr">
+        <is>
+          <t>CABLEADO AC</t>
+        </is>
+      </c>
+      <c r="C20" s="42" t="inlineStr">
+        <is>
+          <t>Ductos y canaletas</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="44" t="inlineStr">
+        <is>
+          <t>20 metros</t>
+        </is>
+      </c>
+      <c r="F20" s="45" t="inlineStr">
+        <is>
+          <t>lote</t>
+        </is>
+      </c>
+      <c r="G20" s="46" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="47">
+        <f>D20*G20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="40" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="41" t="inlineStr">
+        <is>
+          <t>PROTECCIONES</t>
+        </is>
+      </c>
+      <c r="C21" s="42" t="inlineStr">
+        <is>
+          <t>Breakers DC</t>
+        </is>
+      </c>
+      <c r="D21" s="43">
+        <f>Calculadora!D65</f>
+        <v/>
+      </c>
+      <c r="E21" s="44" t="inlineStr">
+        <is>
+          <t>Para protección strings</t>
+        </is>
+      </c>
+      <c r="F21" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G21" s="46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H21" s="47">
+        <f>D21*G21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="40" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t>PROTECCIONES</t>
+        </is>
+      </c>
+      <c r="C22" s="42" t="inlineStr">
+        <is>
+          <t>Breaker principal DC</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="44">
+        <f>ROUND(Calculadora!D67,0)&amp;"A bipolar"</f>
+        <v/>
+      </c>
+      <c r="F22" s="45" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="G22" s="46" t="n">
+        <v>45</v>
+      </c>
+      <c r="H22" s="47">
+        <f>D22*G22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="40" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t>PROTECCIONES</t>
+        </is>
+      </c>
+      <c r="C23" s="42" t="inlineStr">
+        <is>
+          <t>Breaker AC entrada</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44" t="inlineStr">
+        <is>
+          <t>Según red eléctrica</t>
+        </is>
+      </c>
+      <c r="F23" s="45" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="G23" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" s="47">
+        <f>D23*G23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="41" t="inlineStr">
+        <is>
+          <t>PROTECCIONES</t>
+        </is>
+      </c>
+      <c r="C24" s="42" t="inlineStr">
+        <is>
+          <t>Breaker AC salida</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="44" t="inlineStr">
+        <is>
+          <t>Protección cargas</t>
+        </is>
+      </c>
+      <c r="F24" s="45" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="G24" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" s="47">
+        <f>D24*G24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="40" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" s="41" t="inlineStr">
+        <is>
+          <t>PROTECCIONES</t>
+        </is>
+      </c>
+      <c r="C25" s="42" t="inlineStr">
+        <is>
+          <t>Supresor de picos (SPD)</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="44" t="inlineStr">
+        <is>
+          <t>DC y AC</t>
+        </is>
+      </c>
+      <c r="F25" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G25" s="46" t="n">
+        <v>80</v>
+      </c>
+      <c r="H25" s="47">
+        <f>D25*G25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="40" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t>TABLEROS</t>
+        </is>
+      </c>
+      <c r="C26" s="42" t="inlineStr">
+        <is>
+          <t>Tablero de distribución DC</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="44" t="inlineStr">
+        <is>
+          <t>Con espacio para breakers</t>
+        </is>
+      </c>
+      <c r="F26" s="45" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="G26" s="46" t="n">
+        <v>120</v>
+      </c>
+      <c r="H26" s="47">
+        <f>D26*G26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t>TABLEROS</t>
+        </is>
+      </c>
+      <c r="C27" s="42" t="inlineStr">
+        <is>
+          <t>Tablero de distribución AC</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="44" t="inlineStr">
+        <is>
+          <t>Con espacio para breakers</t>
+        </is>
+      </c>
+      <c r="F27" s="45" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="G27" s="46" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" s="47">
+        <f>D27*G27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t>TABLEROS</t>
+        </is>
+      </c>
+      <c r="C28" s="42" t="inlineStr">
+        <is>
+          <t>Gabinete para inversor</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="44" t="inlineStr">
+        <is>
+          <t>Metálico con ventilación</t>
+        </is>
+      </c>
+      <c r="F28" s="45" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="G28" s="46" t="n">
+        <v>150</v>
+      </c>
+      <c r="H28" s="47">
+        <f>D28*G28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t>PUESTA A TIERRA</t>
+        </is>
+      </c>
+      <c r="C29" s="42" t="inlineStr">
+        <is>
+          <t>Varilla cooperweld</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="44" t="inlineStr">
+        <is>
+          <t>1.8m x 5/8"</t>
+        </is>
+      </c>
+      <c r="F29" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G29" s="46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" s="47">
+        <f>D29*G29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t>PUESTA A TIERRA</t>
+        </is>
+      </c>
+      <c r="C30" s="42" t="inlineStr">
+        <is>
+          <t>Conector varilla-cable</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="44" t="inlineStr">
+        <is>
+          <t>Bronce</t>
+        </is>
+      </c>
+      <c r="F30" s="45" t="inlineStr">
+        <is>
+          <t>unidades</t>
+        </is>
+      </c>
+      <c r="G30" s="46" t="n">
+        <v>8</v>
+      </c>
+      <c r="H30" s="47">
+        <f>D30*G30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="40" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t>PUESTA A TIERRA</t>
+        </is>
+      </c>
+      <c r="C31" s="42" t="inlineStr">
+        <is>
+          <t>Cemento conductivo</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="44" t="inlineStr">
+        <is>
+          <t>Bolsa 25kg</t>
+        </is>
+      </c>
+      <c r="F31" s="45" t="inlineStr">
+        <is>
+          <t>bolsas</t>
+        </is>
+      </c>
+      <c r="G31" s="46" t="n">
+        <v>20</v>
+      </c>
+      <c r="H31" s="47">
+        <f>D31*G31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t>MATERIALES VARIOS</t>
+        </is>
+      </c>
+      <c r="C32" s="42" t="inlineStr">
+        <is>
+          <t>Etiquetas identificación</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="44" t="inlineStr">
+        <is>
+          <t>Para cables y equipos</t>
+        </is>
+      </c>
+      <c r="F32" s="45" t="inlineStr">
+        <is>
+          <t>kit</t>
+        </is>
+      </c>
+      <c r="G32" s="46" t="n">
+        <v>15</v>
+      </c>
+      <c r="H32" s="47">
+        <f>D32*G32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t>MATERIALES VARIOS</t>
+        </is>
+      </c>
+      <c r="C33" s="42" t="inlineStr">
+        <is>
+          <t>Silicón sellante</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="44" t="inlineStr">
+        <is>
+          <t>Para impermeabilización</t>
+        </is>
+      </c>
+      <c r="F33" s="45" t="inlineStr">
+        <is>
+          <t>tubos</t>
+        </is>
+      </c>
+      <c r="G33" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="H33" s="47">
+        <f>D33*G33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t>MATERIALES VARIOS</t>
+        </is>
+      </c>
+      <c r="C34" s="42" t="inlineStr">
+        <is>
+          <t>Cinta aislante</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="44" t="inlineStr">
+        <is>
+          <t>Alta temperatura</t>
+        </is>
+      </c>
+      <c r="F34" s="45" t="inlineStr">
+        <is>
+          <t>rollos</t>
+        </is>
+      </c>
+      <c r="G34" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="47">
+        <f>D34*G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="40" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t>MATERIALES VARIOS</t>
+        </is>
+      </c>
+      <c r="C35" s="42" t="inlineStr">
+        <is>
+          <t>Amarras plásticas UV</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="44" t="inlineStr">
+        <is>
+          <t>Pack 100 unidades</t>
+        </is>
+      </c>
+      <c r="F35" s="45" t="inlineStr">
+        <is>
+          <t>pack</t>
+        </is>
+      </c>
+      <c r="G35" s="46" t="n">
+        <v>8</v>
+      </c>
+      <c r="H35" s="47">
+        <f>D35*G35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="40" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" s="41" t="inlineStr">
+        <is>
+          <t>MATERIALES VARIOS</t>
+        </is>
+      </c>
+      <c r="C36" s="42" t="inlineStr">
+        <is>
+          <t>Abrazaderas metálicas</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="44" t="inlineStr">
+        <is>
+          <t>Varias medidas</t>
+        </is>
+      </c>
+      <c r="F36" s="45" t="inlineStr">
+        <is>
+          <t>kit</t>
+        </is>
+      </c>
+      <c r="G36" s="46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H36" s="47">
+        <f>D36*G36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL PANELES SOLARES</t>
+        </is>
+      </c>
+      <c r="H38" s="49">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL INVERSOR</t>
+        </is>
+      </c>
+      <c r="H39" s="49">
+        <f>SUM(H9:H10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL BATERÍAS</t>
+        </is>
+      </c>
+      <c r="H40" s="49">
+        <f>SUM(H11:H13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL CABLEADO DC</t>
+        </is>
+      </c>
+      <c r="H41" s="49">
+        <f>SUM(H14:H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL CABLEADO AC</t>
+        </is>
+      </c>
+      <c r="H42" s="49">
+        <f>SUM(H18:H20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL PROTECCIONES</t>
+        </is>
+      </c>
+      <c r="H43" s="49">
+        <f>SUM(H21:H25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL TABLEROS</t>
+        </is>
+      </c>
+      <c r="H44" s="49">
+        <f>SUM(H26:H28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL PUESTA A TIERRA</t>
+        </is>
+      </c>
+      <c r="H45" s="49">
+        <f>SUM(H29:H31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="48" t="inlineStr">
+        <is>
+          <t>SUBTOTAL MATERIALES VARIOS</t>
+        </is>
+      </c>
+      <c r="H46" s="49">
+        <f>SUM(H32:H36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="50" t="inlineStr">
+        <is>
+          <t>TOTAL MATERIALES Y COMPONENTES</t>
+        </is>
+      </c>
+      <c r="H48" s="51">
+        <f>SUM(H5:H36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="52" t="inlineStr">
+        <is>
+          <t>MANO DE OBRA INSTALACIÓN</t>
+        </is>
+      </c>
+      <c r="H49" s="53" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="54" t="inlineStr">
+        <is>
+          <t>💵 INVERSIÓN TOTAL DEL PROYECTO</t>
+        </is>
+      </c>
+      <c r="H50" s="55">
+        <f>H48+H49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="56" t="inlineStr">
+        <is>
+          <t>📝 NOTAS: Precios unitarios son referenciales. Ajuste según proveedores locales. Cantidades calculadas automáticamente.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A46:G46"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>